--- a/data/downloads/Coal India.xlsx
+++ b/data/downloads/Coal India.xlsx
@@ -4102,7 +4102,7 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>388.00</v>
+        <v>389.05</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -4110,7 +4110,7 @@
         <v>79</v>
       </c>
       <c r="B9">
-        <v>239113.89</v>
+        <v>239760.95</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
